--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200109/关于请IT部开发IPRAN改性能的需求测试报告（196167337）/关于请IT部开发IPRAN改性能的需求测试报告（196167337）.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200109/关于请IT部开发IPRAN改性能的需求测试报告（196167337）/关于请IT部开发IPRAN改性能的需求测试报告（196167337）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>序号</t>
   </si>
@@ -482,14 +482,6 @@
     <t>2019.01.06 15：00</t>
   </si>
   <si>
-    <t>WMZ2020011000536443</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试通过</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>张轶晟</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -565,16 +557,52 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>普通型以太专线改端口类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通型以太专线改名过户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通型以太专线改封装类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通型以太专线移机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 WMZ2020011000536453</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>WMZ2020011000536454</t>
+    <t>WMZ2020011300533926</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>普通型以太专线改端口类型</t>
+    <t>WMZ2020011300536460</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020011000536443</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020011300533925</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020011300536458</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客保页面需要开发</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1181,7 @@
   <dimension ref="A1:IS13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1477,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="42" t="s">
@@ -1766,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>86</v>
-      </c>
       <c r="D3" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="43"/>
@@ -2028,11 +2056,15 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E4" s="23"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
@@ -2288,15 +2320,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2550,11 +2584,15 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
@@ -2809,12 +2847,18 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -5002,29 +5046,29 @@
         <v>196167337</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>55</v>

--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200109/关于请IT部开发IPRAN改性能的需求测试报告（196167337）/关于请IT部开发IPRAN改性能的需求测试报告（196167337）.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200109/关于请IT部开发IPRAN改性能的需求测试报告（196167337）/关于请IT部开发IPRAN改性能的需求测试报告（196167337）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>测试负责人</t>
   </si>
   <si>
     <t>需求分析</t>
@@ -84,9 +81,6 @@
     <t>普通型以太专线改速率（不换端口）</t>
   </si>
   <si>
-    <t>沈健 10小时</t>
-  </si>
-  <si>
     <t>以太专线（670产品）新增改性能开通流程，需要支持改速率、改名过户、改端口类型、改封装类型、改VPCID、改用户IP、改地址操作。需要验证各场景下CRM受理，综资资源调度、IBP开通流程和派发工单是否正常。</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>CRM订单号</t>
   </si>
   <si>
-    <t>发现人</t>
-  </si>
-  <si>
     <t>发现BUG时间</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
   </si>
   <si>
     <t>WMZ2019123000530580</t>
-  </si>
-  <si>
-    <t>沈健</t>
   </si>
   <si>
     <r>
@@ -480,10 +468,6 @@
   </si>
   <si>
     <t>2019.01.06 15：00</t>
-  </si>
-  <si>
-    <t>张轶晟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通型以太专线改速率（换端口）</t>
@@ -876,18 +860,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,6 +877,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS13"/>
+  <dimension ref="A1:IR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1191,23 +1175,22 @@
     <col min="3" max="3" width="12.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="18" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="6" style="18" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="30.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="18" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="18" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="18" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="18" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="18" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="18"/>
+    <col min="6" max="6" width="25.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="6" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="30.25" style="18" customWidth="1"/>
+    <col min="13" max="13" width="17.75" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253">
+    <row r="1" spans="1:252">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1226,10 +1209,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -1247,24 +1230,22 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="S1" s="27"/>
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
@@ -1498,62 +1479,59 @@
       <c r="IP1" s="27"/>
       <c r="IQ1" s="27"/>
       <c r="IR1" s="27"/>
-      <c r="IS1" s="27"/>
-    </row>
-    <row r="2" spans="1:253" ht="50.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:252" ht="50.1" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="38">
+        <v>12</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="I2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="42">
-        <v>12</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="J2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="43">
+        <v>196167337</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="M2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="37">
-        <v>196167337</v>
-      </c>
-      <c r="M2" s="35" t="s">
+      <c r="N2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="O2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="37">
+      <c r="P2" s="43">
         <v>20200114</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="37"/>
+      <c r="Q2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
@@ -1787,36 +1765,35 @@
       <c r="IP2" s="28"/>
       <c r="IQ2" s="28"/>
       <c r="IR2" s="28"/>
-      <c r="IS2" s="28"/>
-    </row>
-    <row r="3" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="3" spans="1:252" ht="53.1" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
       <c r="V3" s="30"/>
@@ -2050,36 +2027,35 @@
       <c r="IP3" s="30"/>
       <c r="IQ3" s="30"/>
       <c r="IR3" s="30"/>
-      <c r="IS3" s="30"/>
-    </row>
-    <row r="4" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="4" spans="1:252" ht="53.1" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="29"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
@@ -2313,38 +2289,37 @@
       <c r="IP4" s="30"/>
       <c r="IQ4" s="30"/>
       <c r="IR4" s="30"/>
-      <c r="IS4" s="30"/>
-    </row>
-    <row r="5" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="5" spans="1:252" ht="53.1" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
@@ -2578,36 +2553,35 @@
       <c r="IP5" s="30"/>
       <c r="IQ5" s="30"/>
       <c r="IR5" s="30"/>
-      <c r="IS5" s="30"/>
-    </row>
-    <row r="6" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:252" ht="53.1" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="29"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
@@ -2841,38 +2815,37 @@
       <c r="IP6" s="30"/>
       <c r="IQ6" s="30"/>
       <c r="IR6" s="30"/>
-      <c r="IS6" s="30"/>
-    </row>
-    <row r="7" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="7" spans="1:252" ht="53.1" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="29"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -3106,34 +3079,33 @@
       <c r="IP7" s="30"/>
       <c r="IQ7" s="30"/>
       <c r="IR7" s="30"/>
-      <c r="IS7" s="30"/>
-    </row>
-    <row r="8" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="8" spans="1:252" ht="53.1" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="29"/>
+      <c r="E8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -3367,32 +3339,31 @@
       <c r="IP8" s="30"/>
       <c r="IQ8" s="30"/>
       <c r="IR8" s="30"/>
-      <c r="IS8" s="30"/>
-    </row>
-    <row r="9" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="9" spans="1:252" ht="53.1" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -3626,32 +3597,31 @@
       <c r="IP9" s="30"/>
       <c r="IQ9" s="30"/>
       <c r="IR9" s="30"/>
-      <c r="IS9" s="30"/>
-    </row>
-    <row r="10" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="10" spans="1:252" ht="53.1" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="29"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="30"/>
@@ -3885,32 +3855,31 @@
       <c r="IP10" s="30"/>
       <c r="IQ10" s="30"/>
       <c r="IR10" s="30"/>
-      <c r="IS10" s="30"/>
-    </row>
-    <row r="11" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="11" spans="1:252" ht="53.1" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
@@ -4144,32 +4113,31 @@
       <c r="IP11" s="30"/>
       <c r="IQ11" s="30"/>
       <c r="IR11" s="30"/>
-      <c r="IS11" s="30"/>
-    </row>
-    <row r="12" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="12" spans="1:252" ht="53.1" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="30"/>
@@ -4403,32 +4371,31 @@
       <c r="IP12" s="30"/>
       <c r="IQ12" s="30"/>
       <c r="IR12" s="30"/>
-      <c r="IS12" s="30"/>
-    </row>
-    <row r="13" spans="1:253" ht="53.1" customHeight="1">
+    </row>
+    <row r="13" spans="1:252" ht="53.1" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
       <c r="V13" s="30"/>
@@ -4662,26 +4629,24 @@
       <c r="IP13" s="30"/>
       <c r="IQ13" s="30"/>
       <c r="IR13" s="30"/>
-      <c r="IS13" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B13"/>
-  <mergeCells count="15">
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="G2:G13"/>
-    <mergeCell ref="H2:H13"/>
+  <mergeCells count="14">
+    <mergeCell ref="N2:N13"/>
+    <mergeCell ref="O2:O13"/>
+    <mergeCell ref="P2:P13"/>
+    <mergeCell ref="Q2:Q13"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="I2:I13"/>
     <mergeCell ref="J2:J13"/>
     <mergeCell ref="K2:K13"/>
     <mergeCell ref="L2:L13"/>
     <mergeCell ref="M2:M13"/>
-    <mergeCell ref="N2:N13"/>
-    <mergeCell ref="O2:O13"/>
-    <mergeCell ref="P2:P13"/>
-    <mergeCell ref="Q2:Q13"/>
-    <mergeCell ref="R2:R13"/>
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="H2:H13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4690,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4701,56 +4666,52 @@
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="36.75">
+    </row>
+    <row r="2" spans="1:11" ht="36.75">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4758,35 +4719,32 @@
         <v>196167337</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="37.5">
+    </row>
+    <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4794,35 +4752,32 @@
         <v>196167337</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="48.75">
+    </row>
+    <row r="4" spans="1:11" ht="48.75">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4830,35 +4785,32 @@
         <v>196167337</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="37.5">
+      <c r="K4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -4866,35 +4818,32 @@
         <v>196167337</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="48">
+      <c r="I5" s="4"/>
+      <c r="J5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4902,35 +4851,32 @@
         <v>196167337</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24">
+      <c r="K6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -4938,35 +4884,32 @@
         <v>196167337</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="36.75">
+      <c r="I7" s="4"/>
+      <c r="J7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -4974,35 +4917,32 @@
         <v>196167337</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="36">
+      <c r="I8" s="4"/>
+      <c r="J8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -5010,35 +4950,32 @@
         <v>196167337</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="48">
+      <c r="I9" s="4"/>
+      <c r="J9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -5046,462 +4983,426 @@
         <v>196167337</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="17"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="17"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="17"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="17"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="J16" s="17"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="J17" s="17"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="J18" s="17"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="J19" s="17"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="12"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="17"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="J21" s="17"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="17"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="J23" s="17"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="J24" s="17"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="J25" s="17"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="12"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="J26" s="17"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="12"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="J27" s="17"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="12"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="J28" s="17"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="12"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="J29" s="17"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="12"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="J30" s="17"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="12"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="J31" s="17"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="12"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="J32" s="17"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="12"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="J33" s="17"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="12"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="J34" s="17"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="12"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="J35" s="17"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="12"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="J36" s="17"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="12"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="J37" s="17"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="12"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="J38" s="17"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="12"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="J39" s="17"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="12"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="J40" s="17"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="12"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="J41" s="17"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="12"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="J42" s="17"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="12"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="11"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
